--- a/mission/development_anticipation_shopping_20170220.xlsx
+++ b/mission/development_anticipation_shopping_20170220.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\project_sample\useful_txt\mission\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="APP-iOS" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>编号</t>
   </si>
@@ -166,19 +171,199 @@
   </si>
   <si>
     <t>发货列表</t>
+  </si>
+  <si>
+    <t>商城APP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜你喜欢</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江助正</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索推荐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4--8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合作商家</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发供货地（是否支持省级/全国查询）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端查询数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与劳务对接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单确认</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付/短信</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊彬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部品种</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>已开始</t>
+  </si>
+  <si>
+    <t>2/17/2017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/18/2017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/20/2017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/16/2017</t>
+  </si>
+  <si>
+    <t>2/16/2017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已开始</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/21/2017</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶闻达</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王缙光</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地区缓存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认价格自动获取</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>董自齐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +384,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,148 +393,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,194 +411,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -575,253 +437,48 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,59 +500,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1183,33 +828,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:Q17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" customWidth="1"/>
+    <col min="14" max="15" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="22.5" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1262,14 +907,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.6" customHeight="1" spans="1:17">
+    <row r="2" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1290,21 +935,23 @@
         <v>8</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="N2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="15"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" customFormat="1" ht="15.6" customHeight="1" spans="1:17">
+    <row r="3" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1323,21 +970,23 @@
         <v>8</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="6"/>
+      <c r="N3" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" customFormat="1" ht="15.6" customHeight="1" spans="1:17">
+    <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1356,21 +1005,23 @@
         <v>16</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="6"/>
+      <c r="N4" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" customFormat="1" ht="15.6" customHeight="1" spans="1:17">
+    <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1387,21 +1038,23 @@
         <v>12</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="6"/>
+      <c r="N5" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
@@ -1418,21 +1071,23 @@
         <v>32</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="6"/>
+      <c r="N6" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1453,21 +1108,23 @@
         <v>12</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="6"/>
+      <c r="N7" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
@@ -1486,21 +1143,23 @@
         <v>4</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="6"/>
+      <c r="N8" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1519,21 +1178,23 @@
         <v>4</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="6"/>
+      <c r="N9" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
@@ -1549,22 +1210,24 @@
       <c r="J10" s="4">
         <v>8</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>22</v>
+      <c r="K10" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="6"/>
+      <c r="N10" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1584,22 +1247,24 @@
       <c r="J11" s="4">
         <v>8</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>22</v>
+      <c r="K11" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="6"/>
+      <c r="N11" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
@@ -1618,21 +1283,23 @@
         <v>8</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="6"/>
+      <c r="N12" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
@@ -1651,21 +1318,23 @@
         <v>8</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="6"/>
+      <c r="N13" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1684,21 +1353,23 @@
         <v>8</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="6"/>
+      <c r="N14" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
@@ -1721,17 +1392,19 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="6"/>
+      <c r="N15" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="4" t="s">
         <v>46</v>
       </c>
@@ -1750,21 +1423,23 @@
         <v>32</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="6"/>
+      <c r="N16" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="4" t="s">
         <v>49</v>
       </c>
@@ -1783,57 +1458,733 @@
         <v>32</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="6"/>
+      <c r="N17" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
     </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4</v>
+      </c>
+      <c r="J18" s="4">
+        <v>4</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4</v>
+      </c>
+      <c r="J19" s="4">
+        <v>8</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="4">
+        <v>8</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4">
+        <v>8</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="4">
+        <v>8</v>
+      </c>
+      <c r="J22" s="4">
+        <v>12</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="4">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4">
+        <v>16</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="4">
+        <v>8</v>
+      </c>
+      <c r="J24" s="4">
+        <v>12</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="4">
+        <v>4</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="4">
+        <v>8</v>
+      </c>
+      <c r="J26" s="4">
+        <v>8</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="4">
+        <v>8</v>
+      </c>
+      <c r="J27" s="4">
+        <v>12</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="4">
+        <v>16</v>
+      </c>
+      <c r="J28" s="4">
+        <v>16</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="4">
+        <v>4</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="4">
+        <v>4</v>
+      </c>
+      <c r="J31" s="4">
+        <v>4</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="4">
+        <v>20</v>
+      </c>
+      <c r="J32" s="4">
+        <v>20</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="4">
+        <v>4</v>
+      </c>
+      <c r="J33" s="4">
+        <v>4</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C27"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3 K4:K17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K40">
       <formula1>"需求待确认,排期中,已开始,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/mission/development_anticipation_shopping_20170220.xlsx
+++ b/mission/development_anticipation_shopping_20170220.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\project_sample\useful_txt\mission\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="APP-iOS" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="console" sheetId="1" r:id="rId1"/>
+    <sheet name="买家APP" sheetId="2" r:id="rId2"/>
+    <sheet name="卖家PC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
   <si>
     <t>编号</t>
   </si>
@@ -89,76 +84,100 @@
     <t>叶闻达</t>
   </si>
   <si>
+    <t>已完成</t>
+  </si>
+  <si>
+    <t>2/17/2017</t>
+  </si>
+  <si>
+    <t>商品编辑</t>
+  </si>
+  <si>
+    <t>已开始</t>
+  </si>
+  <si>
+    <t>2/29/2017</t>
+  </si>
+  <si>
+    <t>供货地多选</t>
+  </si>
+  <si>
+    <t>2/20/2017</t>
+  </si>
+  <si>
+    <t>强制下架</t>
+  </si>
+  <si>
+    <t>江助正</t>
+  </si>
+  <si>
+    <t>商品审核</t>
+  </si>
+  <si>
+    <t>2/16/2017</t>
+  </si>
+  <si>
+    <t>商品分类</t>
+  </si>
+  <si>
+    <t>分类编辑</t>
+  </si>
+  <si>
+    <t>同级验证</t>
+  </si>
+  <si>
+    <t>董自齐</t>
+  </si>
+  <si>
+    <t>取得所有分类</t>
+  </si>
+  <si>
+    <t>leaf=0</t>
+  </si>
+  <si>
+    <t>分类列表</t>
+  </si>
+  <si>
+    <t>禁用</t>
+  </si>
+  <si>
+    <t>2/18/2017</t>
+  </si>
+  <si>
+    <t>禁用/启用分类(品类)</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>订单接口</t>
+  </si>
+  <si>
+    <t>单位换算</t>
+  </si>
+  <si>
+    <t>王缙光</t>
+  </si>
+  <si>
+    <t>订单租赁接口</t>
+  </si>
+  <si>
+    <t>发货</t>
+  </si>
+  <si>
+    <t>后端接口</t>
+  </si>
+  <si>
+    <t>发货详细</t>
+  </si>
+  <si>
+    <t>发货修改订单</t>
+  </si>
+  <si>
     <t>排期中</t>
   </si>
   <si>
-    <t>商品编辑</t>
-  </si>
-  <si>
-    <t>供货地多选</t>
-  </si>
-  <si>
-    <t>强制下架</t>
-  </si>
-  <si>
-    <t>江助正</t>
-  </si>
-  <si>
-    <t>商品审核</t>
-  </si>
-  <si>
-    <t>商品分类</t>
-  </si>
-  <si>
-    <t>分类编辑</t>
-  </si>
-  <si>
-    <t>同级验证</t>
-  </si>
-  <si>
-    <t>董自齐</t>
-  </si>
-  <si>
-    <t>取得所有分类</t>
-  </si>
-  <si>
-    <t>leaf=0</t>
-  </si>
-  <si>
-    <t>分类列表</t>
-  </si>
-  <si>
-    <t>禁用</t>
-  </si>
-  <si>
-    <t>禁用/启用分类(品类)</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>订单接口</t>
-  </si>
-  <si>
-    <t>单位换算</t>
-  </si>
-  <si>
-    <t>王缙光</t>
-  </si>
-  <si>
-    <t>订单租赁接口</t>
-  </si>
-  <si>
-    <t>发货</t>
-  </si>
-  <si>
-    <t>后端接口</t>
-  </si>
-  <si>
-    <t>发货详细</t>
-  </si>
-  <si>
-    <t>发货修改订单</t>
+    <t>2/21/2017</t>
   </si>
   <si>
     <t>发货编辑</t>
@@ -174,94 +193,78 @@
   </si>
   <si>
     <t>商城APP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>推荐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>猜你喜欢</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>店铺ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>江助正</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品属性</t>
   </si>
   <si>
     <t>搜索</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>搜索推荐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4--8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>合作商家</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认价格自动获取</t>
+  </si>
+  <si>
+    <t>地区缓存</t>
+  </si>
+  <si>
+    <t>发供货地（是否支持省级/全国查询）</t>
   </si>
   <si>
     <t>租赁价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发供货地（是否支持省级/全国查询）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>收藏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>后端查询数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>项目列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>与劳务对接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>订单确认</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付/短信</t>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付/短信</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货单</t>
+  </si>
+  <si>
+    <t>店铺分类</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>p</t>
     </r>
     <r>
@@ -269,101 +272,29 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>age</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊彬</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
   </si>
   <si>
     <t>全部品种</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-  </si>
-  <si>
-    <t>已开始</t>
-  </si>
-  <si>
-    <t>2/17/2017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/18/2017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/20/2017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/16/2017</t>
-  </si>
-  <si>
-    <t>2/16/2017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/21/2017</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶闻达</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>王缙光</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地区缓存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认价格自动获取</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>董自齐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,21 +315,157 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,8 +478,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -472,9 +725,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -494,53 +989,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -828,33 +1362,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" customWidth="1"/>
-    <col min="14" max="15" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.10833333333333" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="27.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="15.4416666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.2166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8833333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="14.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="16.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="8.25" customWidth="1"/>
+    <col min="13" max="13" width="6.625" customWidth="1"/>
+    <col min="14" max="15" width="10.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="22.5" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -907,14 +1443,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="15.6" customHeight="1" spans="1:17">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -934,26 +1470,26 @@
       <c r="J2" s="4">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>79</v>
+      <c r="K2" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="14"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" ht="15.6" customHeight="1" spans="1:17">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
@@ -969,30 +1505,30 @@
       <c r="J3" s="4">
         <v>8</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>80</v>
+      <c r="K3" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" ht="15.6" customHeight="1" spans="1:17">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
-        <v>24</v>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
@@ -1004,32 +1540,32 @@
       <c r="J4" s="4">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>80</v>
+      <c r="K4" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" ht="15.6" customHeight="1" spans="1:17">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I5" s="4">
         <v>4</v>
@@ -1037,32 +1573,32 @@
       <c r="J5" s="4">
         <v>12</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>80</v>
+      <c r="K5" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I6" s="4">
         <v>16</v>
@@ -1070,36 +1606,36 @@
       <c r="J6" s="4">
         <v>32</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>80</v>
+      <c r="K6" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I7" s="4">
         <v>12</v>
@@ -1107,34 +1643,34 @@
       <c r="J7" s="4">
         <v>12</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>79</v>
+      <c r="K7" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I8" s="4">
         <v>4</v>
@@ -1142,34 +1678,34 @@
       <c r="J8" s="4">
         <v>4</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>79</v>
+      <c r="K8" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I9" s="4">
         <v>4</v>
@@ -1177,32 +1713,32 @@
       <c r="J9" s="4">
         <v>4</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>79</v>
+      <c r="K9" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I10" s="4">
         <v>8</v>
@@ -1210,36 +1746,36 @@
       <c r="J10" s="4">
         <v>8</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>86</v>
+      <c r="K10" s="14" t="s">
+        <v>25</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
-        <v>37</v>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I11" s="4">
         <v>8</v>
@@ -1247,34 +1783,34 @@
       <c r="J11" s="4">
         <v>8</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>87</v>
+      <c r="K11" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I12" s="4">
         <v>8</v>
@@ -1282,34 +1818,34 @@
       <c r="J12" s="4">
         <v>8</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>79</v>
+      <c r="K12" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I13" s="4">
         <v>8</v>
@@ -1317,34 +1853,34 @@
       <c r="J13" s="4">
         <v>8</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>79</v>
+      <c r="K13" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I14" s="4">
         <v>8</v>
@@ -1352,34 +1888,34 @@
       <c r="J14" s="4">
         <v>8</v>
       </c>
-      <c r="K14" s="6" t="s">
-        <v>79</v>
+      <c r="K14" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I15" s="4">
         <v>8</v>
@@ -1387,34 +1923,34 @@
       <c r="J15" s="4">
         <v>8</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>22</v>
+      <c r="K15" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I16" s="4">
         <v>16</v>
@@ -1422,34 +1958,34 @@
       <c r="J16" s="4">
         <v>32</v>
       </c>
-      <c r="K16" s="6" t="s">
-        <v>80</v>
+      <c r="K16" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="15.6" customHeight="1" spans="1:17">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="I17" s="4">
         <v>8</v>
@@ -1457,38 +1993,38 @@
       <c r="J17" s="4">
         <v>32</v>
       </c>
-      <c r="K17" s="6" t="s">
-        <v>79</v>
+      <c r="K17" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>51</v>
+      <c r="B18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="10" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I18" s="4">
         <v>4</v>
@@ -1496,32 +2032,32 @@
       <c r="J18" s="4">
         <v>4</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>22</v>
+      <c r="K18" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I19" s="4">
         <v>4</v>
@@ -1529,67 +2065,67 @@
       <c r="J19" s="4">
         <v>8</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>22</v>
+      <c r="K19" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="J20" s="4">
         <v>8</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>22</v>
+      <c r="K20" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>62</v>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I21" s="4">
         <v>8</v>
@@ -1597,28 +2133,28 @@
       <c r="J21" s="4">
         <v>8</v>
       </c>
-      <c r="K21" s="6" t="s">
-        <v>22</v>
+      <c r="K21" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="4"/>
       <c r="F22" s="10" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I22" s="4">
         <v>8</v>
@@ -1626,28 +2162,28 @@
       <c r="J22" s="4">
         <v>12</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>22</v>
+      <c r="K22" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="4"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="4"/>
       <c r="F23" s="10" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="10" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I23" s="4">
         <v>16</v>
@@ -1655,30 +2191,30 @@
       <c r="J23" s="4">
         <v>16</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>22</v>
+      <c r="K23" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="4"/>
       <c r="F24" s="10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="10" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I24" s="4">
         <v>8</v>
@@ -1686,30 +2222,30 @@
       <c r="J24" s="4">
         <v>12</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>22</v>
+      <c r="K24" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="4"/>
       <c r="F25" s="10" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I25" s="4">
         <v>4</v>
@@ -1717,32 +2253,32 @@
       <c r="J25" s="4">
         <v>4</v>
       </c>
-      <c r="K25" s="6" t="s">
-        <v>22</v>
+      <c r="K25" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="4">
         <v>23</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="10" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="I26" s="4">
         <v>8</v>
@@ -1750,32 +2286,32 @@
       <c r="J26" s="4">
         <v>8</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>22</v>
+      <c r="K26" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="4">
         <v>24</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="14"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="10" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="10" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="I27" s="4">
         <v>8</v>
@@ -1783,32 +2319,32 @@
       <c r="J27" s="4">
         <v>12</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>22</v>
+      <c r="K27" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="4">
         <v>25</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="12" t="s">
-        <v>68</v>
+      <c r="B28" s="6"/>
+      <c r="C28" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="10" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="I28" s="4">
         <v>16</v>
@@ -1816,59 +2352,59 @@
       <c r="J28" s="4">
         <v>16</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>22</v>
+      <c r="K28" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="4">
         <v>26</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="4">
         <v>27</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="10" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="I30" s="4">
         <v>4</v>
@@ -1876,32 +2412,32 @@
       <c r="J30" s="4">
         <v>4</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>22</v>
+      <c r="K30" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="4">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="10" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I31" s="4">
         <v>4</v>
@@ -1909,32 +2445,32 @@
       <c r="J31" s="4">
         <v>4</v>
       </c>
-      <c r="K31" s="6" t="s">
-        <v>22</v>
+      <c r="K31" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="4">
         <v>29</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="10" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="10" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I32" s="4">
         <v>20</v>
@@ -1942,32 +2478,32 @@
       <c r="J32" s="4">
         <v>20</v>
       </c>
-      <c r="K32" s="6" t="s">
-        <v>22</v>
+      <c r="K32" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>30</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="10" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I33" s="4">
         <v>4</v>
@@ -1975,17 +2511,17 @@
       <c r="J33" s="4">
         <v>4</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>22</v>
+      <c r="K33" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -1998,15 +2534,15 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="6"/>
+      <c r="K34" s="13"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -2019,15 +2555,15 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="6"/>
+      <c r="K35" s="13"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -2040,15 +2576,15 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="13"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -2061,15 +2597,15 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="6"/>
+      <c r="K37" s="13"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -2082,15 +2618,15 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="6"/>
+      <c r="K38" s="13"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -2103,15 +2639,15 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="6"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -2124,67 +2660,73 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="6"/>
+      <c r="K40" s="13"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="B2:B17"/>
     <mergeCell ref="B18:B33"/>
-    <mergeCell ref="B2:B17"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="C11:C17"/>
-    <mergeCell ref="D21:D25"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="C21:C27"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="D21:D25"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K40">
       <formula1>"需求待确认,排期中,已开始,已完成"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88333333333333" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88333333333333" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>